--- a/Project_SPC_Ver5/ParserGenerator/breast.xlsx
+++ b/Project_SPC_Ver5/ParserGenerator/breast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwuwildcat-my.sharepoint.com/personal/worlanda_cwu_edu/Documents/CS DEGREE/Research Assistant/Git Repos/cs556_project/Project_SPC_Ver5/ParserGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{780055E0-E371-4FEF-AD46-1AEFD00FDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{780055E0-E371-4FEF-AD46-1AEFD00FDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FB60B3-4968-422A-B3DB-262F69679CDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02BC5DFD-1ECC-4FF1-8CB6-74D74BCAB174}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{02BC5DFD-1ECC-4FF1-8CB6-74D74BCAB174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>ucellsize</t>
   </si>
   <si>
-    <t>ucellshape</t>
-  </si>
-  <si>
     <t>mgadhesion</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>uucellshape</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:J700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,28 +477,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="J83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>7</v>
       </c>
       <c r="J99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="J103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4178,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="J117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4370,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4466,7 +4466,7 @@
         <v>8</v>
       </c>
       <c r="J125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4562,7 +4562,7 @@
         <v>10</v>
       </c>
       <c r="J128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4786,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>7</v>
       </c>
       <c r="J141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5074,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5170,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5458,7 +5458,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
         <v>10</v>
       </c>
       <c r="J157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6162,7 +6162,7 @@
         <v>5</v>
       </c>
       <c r="J178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6290,7 +6290,7 @@
         <v>8</v>
       </c>
       <c r="J182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6322,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6546,7 +6546,7 @@
         <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6610,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="J192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6642,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6770,7 +6770,7 @@
         <v>10</v>
       </c>
       <c r="J197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6994,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -7090,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -7186,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7282,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7378,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7410,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7474,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7730,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7762,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7986,7 +7986,7 @@
         <v>10</v>
       </c>
       <c r="J235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -8242,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8274,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8338,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -8370,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8402,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8498,7 +8498,7 @@
         <v>8</v>
       </c>
       <c r="J251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -8562,7 +8562,7 @@
         <v>8</v>
       </c>
       <c r="J253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8658,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="J256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -8690,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -8722,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
         <v>10</v>
       </c>
       <c r="J264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -8978,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -9010,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -9042,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -9170,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -9298,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -9330,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -9586,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -9618,7 +9618,7 @@
         <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9842,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -9906,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -9938,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -9970,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -10002,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -10034,7 +10034,7 @@
         <v>4</v>
       </c>
       <c r="J299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -10066,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -10098,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -10130,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -10162,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -10226,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -10322,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -10354,7 +10354,7 @@
         <v>3</v>
       </c>
       <c r="J309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -10386,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -10450,7 +10450,7 @@
         <v>5</v>
       </c>
       <c r="J312" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>3</v>
       </c>
       <c r="J313" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
         <v>5</v>
       </c>
       <c r="J314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -10738,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>6</v>
       </c>
       <c r="J325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -10898,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -10930,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -10962,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="J328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -10994,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="J330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -11122,7 +11122,7 @@
         <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -11218,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -11314,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -11346,7 +11346,7 @@
         <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -11474,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -11506,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -11538,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -11570,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -11602,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -11698,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -11762,7 +11762,7 @@
         <v>8</v>
       </c>
       <c r="J353" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -11794,7 +11794,7 @@
         <v>10</v>
       </c>
       <c r="J354" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -11826,7 +11826,7 @@
         <v>3</v>
       </c>
       <c r="J355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="J361" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -12050,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -12082,7 +12082,7 @@
         <v>2</v>
       </c>
       <c r="J363" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -12114,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="J364" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="J365" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -12178,7 +12178,7 @@
         <v>1</v>
       </c>
       <c r="J366" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="J367" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -12242,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="J368" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -12274,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="J369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="J370" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="J371" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -12370,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -12498,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -12530,7 +12530,7 @@
         <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -12562,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -12594,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="J379" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -12658,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -12690,7 +12690,7 @@
         <v>10</v>
       </c>
       <c r="J382" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -12722,7 +12722,7 @@
         <v>4</v>
       </c>
       <c r="J383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -12754,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -12786,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -12818,7 +12818,7 @@
         <v>2</v>
       </c>
       <c r="J386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -12850,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="J388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -12914,7 +12914,7 @@
         <v>3</v>
       </c>
       <c r="J389" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="J390" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -12978,7 +12978,7 @@
         <v>2</v>
       </c>
       <c r="J391" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="J392" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -13042,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="J393" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="J395" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -13138,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -13202,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="J398" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="J399" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -13330,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -13426,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="J406" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -13490,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -13522,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -13586,7 +13586,7 @@
         <v>8</v>
       </c>
       <c r="J410" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="J411" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -13650,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="J412" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -13682,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="J413" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -13714,7 +13714,7 @@
         <v>4</v>
       </c>
       <c r="J414" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="J415" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -13810,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="J417" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -13874,7 +13874,7 @@
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -13906,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -13970,7 +13970,7 @@
         <v>2</v>
       </c>
       <c r="J422" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -14130,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -14194,7 +14194,7 @@
         <v>10</v>
       </c>
       <c r="J429" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -14226,7 +14226,7 @@
         <v>2</v>
       </c>
       <c r="J430" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -14258,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="J431" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -14290,7 +14290,7 @@
         <v>2</v>
       </c>
       <c r="J432" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -14322,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="J433" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
@@ -14354,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -14386,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="J436" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -14450,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="J438" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
@@ -14514,7 +14514,7 @@
         <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
@@ -14546,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="J440" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -14578,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="J441" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -14610,7 +14610,7 @@
         <v>3</v>
       </c>
       <c r="J442" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -14738,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
@@ -14770,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="J447" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -14834,7 +14834,7 @@
         <v>3</v>
       </c>
       <c r="J449" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
@@ -14866,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="J450" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -14898,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="J451" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="J452" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
@@ -14962,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="J453" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
@@ -14994,7 +14994,7 @@
         <v>1</v>
       </c>
       <c r="J454" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
@@ -15026,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="J455" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
@@ -15058,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="J456" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
@@ -15090,7 +15090,7 @@
         <v>3</v>
       </c>
       <c r="J457" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
@@ -15122,7 +15122,7 @@
         <v>7</v>
       </c>
       <c r="J458" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="J459" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="J460" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
@@ -15218,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="J461" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
@@ -15250,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="J462" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
@@ -15282,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
@@ -15314,7 +15314,7 @@
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -15346,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
@@ -15378,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="J466" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
@@ -15410,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="J467" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
@@ -15442,7 +15442,7 @@
         <v>1</v>
       </c>
       <c r="J468" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
@@ -15474,7 +15474,7 @@
         <v>3</v>
       </c>
       <c r="J469" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
@@ -15506,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="J470" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
@@ -15538,7 +15538,7 @@
         <v>3</v>
       </c>
       <c r="J471" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -15570,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
@@ -15602,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="J474" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
@@ -15666,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="J475" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="J476" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="J477" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="J478" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
@@ -15794,7 +15794,7 @@
         <v>3</v>
       </c>
       <c r="J479" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="J480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="J481" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -15890,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="J482" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="J483" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J484" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -15986,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="J485" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
         <v>2</v>
       </c>
       <c r="J486" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="J487" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -16082,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="J488" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="J489" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -16210,7 +16210,7 @@
         <v>1</v>
       </c>
       <c r="J492" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -16242,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="J493" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -16274,7 +16274,7 @@
         <v>1</v>
       </c>
       <c r="J494" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -16306,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="J495" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -16338,7 +16338,7 @@
         <v>1</v>
       </c>
       <c r="J496" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -16370,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -16402,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="J499" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
       <c r="J500" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -16498,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="J501" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -16530,7 +16530,7 @@
         <v>1</v>
       </c>
       <c r="J502" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="J503" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -16594,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="J504" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -16658,7 +16658,7 @@
         <v>1</v>
       </c>
       <c r="J506" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -16690,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -16722,7 +16722,7 @@
         <v>7</v>
       </c>
       <c r="J508" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -16754,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="J509" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -16786,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -16818,7 +16818,7 @@
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="J512" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
@@ -16882,7 +16882,7 @@
         <v>2</v>
       </c>
       <c r="J513" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
@@ -16914,7 +16914,7 @@
         <v>1</v>
       </c>
       <c r="J514" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
@@ -16946,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="J515" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -16978,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="J516" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
@@ -17042,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="J518" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -17074,7 +17074,7 @@
         <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="J520" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -17138,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="J521" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="J522" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
@@ -17202,7 +17202,7 @@
         <v>1</v>
       </c>
       <c r="J523" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
@@ -17234,7 +17234,7 @@
         <v>1</v>
       </c>
       <c r="J524" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="J525" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
@@ -17298,7 +17298,7 @@
         <v>1</v>
       </c>
       <c r="J526" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
@@ -17330,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="J527" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
@@ -17362,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="J528" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
@@ -17394,7 +17394,7 @@
         <v>1</v>
       </c>
       <c r="J529" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
@@ -17426,7 +17426,7 @@
         <v>1</v>
       </c>
       <c r="J530" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
@@ -17458,7 +17458,7 @@
         <v>1</v>
       </c>
       <c r="J531" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
@@ -17490,7 +17490,7 @@
         <v>1</v>
       </c>
       <c r="J532" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="J533" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
@@ -17554,7 +17554,7 @@
         <v>2</v>
       </c>
       <c r="J534" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
@@ -17586,7 +17586,7 @@
         <v>1</v>
       </c>
       <c r="J535" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -17618,7 +17618,7 @@
         <v>1</v>
       </c>
       <c r="J536" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
@@ -17650,7 +17650,7 @@
         <v>2</v>
       </c>
       <c r="J537" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
@@ -17682,7 +17682,7 @@
         <v>1</v>
       </c>
       <c r="J538" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
       <c r="J539" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="J540" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
@@ -17778,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="J541" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
@@ -17810,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="J542" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
@@ -17842,7 +17842,7 @@
         <v>4</v>
       </c>
       <c r="J543" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
@@ -17874,7 +17874,7 @@
         <v>1</v>
       </c>
       <c r="J544" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -17906,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="J545" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
@@ -17938,7 +17938,7 @@
         <v>1</v>
       </c>
       <c r="J546" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
@@ -17970,7 +17970,7 @@
         <v>3</v>
       </c>
       <c r="J547" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
@@ -18002,7 +18002,7 @@
         <v>2</v>
       </c>
       <c r="J548" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
       <c r="J549" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
@@ -18066,7 +18066,7 @@
         <v>1</v>
       </c>
       <c r="J550" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
@@ -18098,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="J551" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
@@ -18130,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="J552" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
@@ -18162,7 +18162,7 @@
         <v>1</v>
       </c>
       <c r="J553" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
@@ -18194,7 +18194,7 @@
         <v>1</v>
       </c>
       <c r="J554" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
@@ -18226,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="J555" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="J556" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
@@ -18290,7 +18290,7 @@
         <v>1</v>
       </c>
       <c r="J557" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
@@ -18322,7 +18322,7 @@
         <v>1</v>
       </c>
       <c r="J558" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
@@ -18354,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="J559" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
@@ -18386,7 +18386,7 @@
         <v>1</v>
       </c>
       <c r="J560" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
@@ -18418,7 +18418,7 @@
         <v>1</v>
       </c>
       <c r="J561" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
@@ -18450,7 +18450,7 @@
         <v>7</v>
       </c>
       <c r="J562" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
@@ -18514,7 +18514,7 @@
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
@@ -18546,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="J565" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
@@ -18578,7 +18578,7 @@
         <v>1</v>
       </c>
       <c r="J566" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
@@ -18610,7 +18610,7 @@
         <v>1</v>
       </c>
       <c r="J567" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="J568" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
@@ -18674,7 +18674,7 @@
         <v>2</v>
       </c>
       <c r="J569" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -18706,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="J570" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
@@ -18738,7 +18738,7 @@
         <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.25">
@@ -18770,7 +18770,7 @@
         <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.25">
@@ -18834,7 +18834,7 @@
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
@@ -18866,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
@@ -18898,7 +18898,7 @@
         <v>1</v>
       </c>
       <c r="J576" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
@@ -18930,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="J577" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
@@ -18962,7 +18962,7 @@
         <v>1</v>
       </c>
       <c r="J578" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
@@ -18994,7 +18994,7 @@
         <v>1</v>
       </c>
       <c r="J579" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
@@ -19026,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="J580" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
@@ -19058,7 +19058,7 @@
         <v>1</v>
       </c>
       <c r="J581" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
@@ -19090,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="J582" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
@@ -19122,7 +19122,7 @@
         <v>3</v>
       </c>
       <c r="J583" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
@@ -19154,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="J584" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
@@ -19186,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="J585" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
@@ -19218,7 +19218,7 @@
         <v>3</v>
       </c>
       <c r="J586" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
@@ -19250,7 +19250,7 @@
         <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
@@ -19282,7 +19282,7 @@
         <v>10</v>
       </c>
       <c r="J588" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
@@ -19314,7 +19314,7 @@
         <v>10</v>
       </c>
       <c r="J589" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
@@ -19346,7 +19346,7 @@
         <v>10</v>
       </c>
       <c r="J590" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
@@ -19378,7 +19378,7 @@
         <v>1</v>
       </c>
       <c r="J591" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="J592" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
@@ -19442,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="J594" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
@@ -19506,7 +19506,7 @@
         <v>1</v>
       </c>
       <c r="J595" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
@@ -19538,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="J596" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
@@ -19570,7 +19570,7 @@
         <v>1</v>
       </c>
       <c r="J597" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
@@ -19602,7 +19602,7 @@
         <v>1</v>
       </c>
       <c r="J598" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
@@ -19634,7 +19634,7 @@
         <v>1</v>
       </c>
       <c r="J599" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
@@ -19666,7 +19666,7 @@
         <v>1</v>
       </c>
       <c r="J600" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
@@ -19698,7 +19698,7 @@
         <v>4</v>
       </c>
       <c r="J601" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
@@ -19730,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="J602" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
@@ -19762,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="J603" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
@@ -19794,7 +19794,7 @@
         <v>7</v>
       </c>
       <c r="J604" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
@@ -19826,7 +19826,7 @@
         <v>1</v>
       </c>
       <c r="J605" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
@@ -19858,7 +19858,7 @@
         <v>2</v>
       </c>
       <c r="J606" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
@@ -19890,7 +19890,7 @@
         <v>1</v>
       </c>
       <c r="J607" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
@@ -19922,7 +19922,7 @@
         <v>5</v>
       </c>
       <c r="J608" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
@@ -19954,7 +19954,7 @@
         <v>1</v>
       </c>
       <c r="J609" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
@@ -19986,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="J610" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
@@ -20018,7 +20018,7 @@
         <v>1</v>
       </c>
       <c r="J611" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
@@ -20050,7 +20050,7 @@
         <v>2</v>
       </c>
       <c r="J612" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
@@ -20082,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="J613" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
@@ -20114,7 +20114,7 @@
         <v>1</v>
       </c>
       <c r="J614" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
@@ -20146,7 +20146,7 @@
         <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
@@ -20178,7 +20178,7 @@
         <v>3</v>
       </c>
       <c r="J616" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
@@ -20210,7 +20210,7 @@
         <v>10</v>
       </c>
       <c r="J617" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
@@ -20242,7 +20242,7 @@
         <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
@@ -20274,7 +20274,7 @@
         <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
@@ -20306,7 +20306,7 @@
         <v>1</v>
       </c>
       <c r="J620" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -20338,7 +20338,7 @@
         <v>1</v>
       </c>
       <c r="J621" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
@@ -20370,7 +20370,7 @@
         <v>1</v>
       </c>
       <c r="J622" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
@@ -20402,7 +20402,7 @@
         <v>3</v>
       </c>
       <c r="J623" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
@@ -20434,7 +20434,7 @@
         <v>1</v>
       </c>
       <c r="J624" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
@@ -20466,7 +20466,7 @@
         <v>1</v>
       </c>
       <c r="J625" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
@@ -20498,7 +20498,7 @@
         <v>1</v>
       </c>
       <c r="J626" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
@@ -20530,7 +20530,7 @@
         <v>1</v>
       </c>
       <c r="J627" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
@@ -20562,7 +20562,7 @@
         <v>1</v>
       </c>
       <c r="J628" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="J629" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="J630" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
@@ -20658,7 +20658,7 @@
         <v>1</v>
       </c>
       <c r="J631" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
@@ -20690,7 +20690,7 @@
         <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
@@ -20722,7 +20722,7 @@
         <v>7</v>
       </c>
       <c r="J633" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="J634" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
@@ -20786,7 +20786,7 @@
         <v>1</v>
       </c>
       <c r="J635" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
@@ -20818,7 +20818,7 @@
         <v>1</v>
       </c>
       <c r="J636" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
@@ -20850,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="J637" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
@@ -20882,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="J638" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
@@ -20914,7 +20914,7 @@
         <v>1</v>
       </c>
       <c r="J639" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
@@ -20946,7 +20946,7 @@
         <v>1</v>
       </c>
       <c r="J640" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
@@ -20978,7 +20978,7 @@
         <v>1</v>
       </c>
       <c r="J641" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
@@ -21010,7 +21010,7 @@
         <v>1</v>
       </c>
       <c r="J642" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
@@ -21042,7 +21042,7 @@
         <v>1</v>
       </c>
       <c r="J643" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
@@ -21074,7 +21074,7 @@
         <v>1</v>
       </c>
       <c r="J644" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
@@ -21106,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="J645" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
@@ -21138,7 +21138,7 @@
         <v>4</v>
       </c>
       <c r="J646" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
@@ -21170,7 +21170,7 @@
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
@@ -21202,7 +21202,7 @@
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
@@ -21234,7 +21234,7 @@
         <v>1</v>
       </c>
       <c r="J649" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
@@ -21266,7 +21266,7 @@
         <v>1</v>
       </c>
       <c r="J650" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
@@ -21298,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="J651" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
@@ -21330,7 +21330,7 @@
         <v>1</v>
       </c>
       <c r="J652" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
@@ -21362,7 +21362,7 @@
         <v>1</v>
       </c>
       <c r="J653" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
@@ -21394,7 +21394,7 @@
         <v>7</v>
       </c>
       <c r="J654" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
@@ -21426,7 +21426,7 @@
         <v>1</v>
       </c>
       <c r="J655" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -21458,7 +21458,7 @@
         <v>1</v>
       </c>
       <c r="J656" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
@@ -21490,7 +21490,7 @@
         <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
@@ -21522,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="J658" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
@@ -21554,7 +21554,7 @@
         <v>1</v>
       </c>
       <c r="J659" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
@@ -21586,7 +21586,7 @@
         <v>1</v>
       </c>
       <c r="J660" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
@@ -21618,7 +21618,7 @@
         <v>1</v>
       </c>
       <c r="J661" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
@@ -21650,7 +21650,7 @@
         <v>1</v>
       </c>
       <c r="J662" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
@@ -21682,7 +21682,7 @@
         <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
@@ -21714,7 +21714,7 @@
         <v>2</v>
       </c>
       <c r="J664" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
@@ -21746,7 +21746,7 @@
         <v>1</v>
       </c>
       <c r="J665" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
@@ -21778,7 +21778,7 @@
         <v>1</v>
       </c>
       <c r="J666" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
@@ -21810,7 +21810,7 @@
         <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
@@ -21842,7 +21842,7 @@
         <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
@@ -21874,7 +21874,7 @@
         <v>1</v>
       </c>
       <c r="J669" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
@@ -21906,7 +21906,7 @@
         <v>2</v>
       </c>
       <c r="J670" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -21938,7 +21938,7 @@
         <v>1</v>
       </c>
       <c r="J671" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
@@ -21970,7 +21970,7 @@
         <v>1</v>
       </c>
       <c r="J672" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
@@ -22002,7 +22002,7 @@
         <v>3</v>
       </c>
       <c r="J673" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
@@ -22034,7 +22034,7 @@
         <v>1</v>
       </c>
       <c r="J674" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
@@ -22066,7 +22066,7 @@
         <v>4</v>
       </c>
       <c r="J675" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
@@ -22098,7 +22098,7 @@
         <v>1</v>
       </c>
       <c r="J676" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
@@ -22130,7 +22130,7 @@
         <v>1</v>
       </c>
       <c r="J677" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
@@ -22162,7 +22162,7 @@
         <v>2</v>
       </c>
       <c r="J678" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
       <c r="J679" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
@@ -22226,7 +22226,7 @@
         <v>1</v>
       </c>
       <c r="J680" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
       <c r="J681" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
@@ -22290,7 +22290,7 @@
         <v>1</v>
       </c>
       <c r="J682" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
@@ -22322,7 +22322,7 @@
         <v>5</v>
       </c>
       <c r="J683" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
@@ -22354,7 +22354,7 @@
         <v>1</v>
       </c>
       <c r="J684" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
@@ -22386,7 +22386,7 @@
         <v>1</v>
       </c>
       <c r="J685" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="J686" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
@@ -22450,7 +22450,7 @@
         <v>1</v>
       </c>
       <c r="J687" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
@@ -22482,7 +22482,7 @@
         <v>1</v>
       </c>
       <c r="J688" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
@@ -22514,7 +22514,7 @@
         <v>1</v>
       </c>
       <c r="J689" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
@@ -22546,7 +22546,7 @@
         <v>1</v>
       </c>
       <c r="J690" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
@@ -22578,7 +22578,7 @@
         <v>1</v>
       </c>
       <c r="J691" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
@@ -22610,7 +22610,7 @@
         <v>1</v>
       </c>
       <c r="J692" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
@@ -22642,7 +22642,7 @@
         <v>1</v>
       </c>
       <c r="J693" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
@@ -22674,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="J694" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
@@ -22738,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
@@ -22770,7 +22770,7 @@
         <v>1</v>
       </c>
       <c r="J697" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
@@ -22802,7 +22802,7 @@
         <v>1</v>
       </c>
       <c r="J698" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
@@ -22834,7 +22834,7 @@
         <v>2</v>
       </c>
       <c r="J699" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
@@ -22866,7 +22866,7 @@
         <v>1</v>
       </c>
       <c r="J700" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
